--- a/ocms/src/test/resources/DownloadedFiles/Organizational Structure.xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Organizational Structure.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
   <si>
     <t xml:space="preserve">Level Hierarchy</t>
   </si>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">NewZealand</t>
   </si>
   <si>
-    <t xml:space="preserve">04/11/2019 17:01:13</t>
+    <t xml:space="preserve">06/11/2019 16:01:13</t>
   </si>
   <si>
     <t xml:space="preserve">England</t>
@@ -64,9 +64,33 @@
     <t xml:space="preserve">23/10/2019 11:49:17</t>
   </si>
   <si>
+    <t xml:space="preserve">America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/11/2019 11:56:50</t>
+  </si>
+  <si>
     <t xml:space="preserve">Division</t>
   </si>
   <si>
+    <t xml:space="preserve">OCM Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">America&gt;OCM Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/11/2019 12:20:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oceania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NewZealand&gt;Oceania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/11/2019 16:01:28</t>
+  </si>
+  <si>
     <t xml:space="preserve">North</t>
   </si>
   <si>
@@ -76,15 +100,6 @@
     <t xml:space="preserve">23/10/2019 11:51:48</t>
   </si>
   <si>
-    <t xml:space="preserve">Oceania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NewZealand&gt;Oceania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/11/2019 17:01:28</t>
-  </si>
-  <si>
     <t xml:space="preserve">South</t>
   </si>
   <si>
@@ -124,22 +139,22 @@
     <t xml:space="preserve">01/10/2019 17:00:10</t>
   </si>
   <si>
+    <t xml:space="preserve">London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">England&gt;North&gt;London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23/10/2019 11:52:22</t>
+  </si>
+  <si>
     <t xml:space="preserve">IT Department</t>
   </si>
   <si>
     <t xml:space="preserve">NewZealand&gt;Oceania&gt;IT Department</t>
   </si>
   <si>
-    <t xml:space="preserve">04/11/2019 17:01:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">England&gt;North&gt;London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23/10/2019 11:52:22</t>
+    <t xml:space="preserve">06/11/2019 16:01:47</t>
   </si>
   <si>
     <t xml:space="preserve">Team</t>
@@ -237,7 +252,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane state="frozen" ySplit="1" topLeftCell="A2"/>
@@ -339,189 +354,223 @@
     </row>
     <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
         <v>48</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="2" t="s">
+    </row>
+    <row r="17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
         <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/DownloadedFiles/Organizational Structure.xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Organizational Structure.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="106">
   <si>
     <t xml:space="preserve">Level Hierarchy</t>
   </si>
@@ -37,106 +37,73 @@
     <t xml:space="preserve">Country</t>
   </si>
   <si>
-    <t xml:space="preserve">Dell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qatetherfi\administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/02/2020 14:43:27</t>
+    <t xml:space="preserve">TH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IndiaTetherfi\Akshith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/08/2018 15:46:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IndiaTetherfi\chetan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/09/2018 14:23:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/09/2018 15:22:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indiatetherfi\administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/07/2019 15:43:31</t>
   </si>
   <si>
     <t xml:space="preserve">NewZealand</t>
   </si>
   <si>
-    <t xml:space="preserve">12/03/2020 15:49:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/01/2020 12:45:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bengteth\administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/10/2019 16:54:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/01/2020 15:30:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/01/2020 17:27:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">England</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/01/2020 15:14:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amereica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/01/2020 15:15:37</t>
+    <t xml:space="preserve">indiatetherfi\meghna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/04/2020 17:53:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESTAUDIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/09/2018 15:38:52</t>
   </si>
   <si>
     <t xml:space="preserve">Division</t>
   </si>
   <si>
-    <t xml:space="preserve">HP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dell&gt;HP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/02/2020 15:42:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North</t>
-  </si>
-  <si>
-    <t xml:space="preserve">England&gt;North</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/01/2020 15:14:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tokiyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan&gt;Tokiyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30/01/2020 16:58:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India&gt;South</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/10/2019 16:59:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Houggang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore&gt;Houggang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/10/2019 16:55:03</t>
+    <t xml:space="preserve">Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESTAUDIT&gt;Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/09/2018 15:39:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">divlast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH&gt;divlast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/08/2019 15:55:13</t>
   </si>
   <si>
     <t xml:space="preserve">Oceania</t>
@@ -145,55 +112,112 @@
     <t xml:space="preserve">NewZealand&gt;Oceania</t>
   </si>
   <si>
-    <t xml:space="preserve">12/03/2020 15:49:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philli&gt;Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/01/2020 15:11:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Washing Tone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amereica&gt;Washing Tone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/01/2020 15:15:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SingtelTDM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore&gt;SingtelTDM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/01/2020 15:15:16</t>
+    <t xml:space="preserve">27/04/2020 17:54:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DivisionIndia1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India&gt;DivisionIndia1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/07/2019 15:46:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DivisionIndia2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India&gt;DivisionIndia2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/07/2019 15:46:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CON&gt;DIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/09/2018 15:23:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Div2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autria&gt;Div2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/09/2018 14:29:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH&gt;Digi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IndiaTetherfi\Anitha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/07/2018 18:35:03</t>
   </si>
   <si>
     <t xml:space="preserve">Department</t>
   </si>
   <si>
-    <t xml:space="preserve">News</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan&gt;Tokiyo&gt;News</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03/02/2020 10:56:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amereica&gt;Washing Tone&gt;Branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/01/2020 15:15:52</t>
+    <t xml:space="preserve">accounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH&gt;Digi&gt;accounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/07/2018 18:35:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autria&gt;Div2&gt;Depart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/09/2018 14:30:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DepIndia1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India&gt;DivisionIndia1&gt;DepIndia1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/07/2019 15:48:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DepIndia2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India&gt;DivisionIndia1&gt;DepIndia2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/07/2019 15:48:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dep1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India&gt;DivisionIndia2&gt;Dep1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/07/2019 15:49:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dep2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India&gt;DivisionIndia2&gt;Dep2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/07/2019 15:49:53</t>
   </si>
   <si>
     <t xml:space="preserve">IT Department</t>
@@ -202,118 +226,115 @@
     <t xml:space="preserve">NewZealand&gt;Oceania&gt;IT Department</t>
   </si>
   <si>
-    <t xml:space="preserve">12/03/2020 15:50:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samsung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dell&gt;HP&gt;Samsung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/02/2020 12:16:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mangalore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India&gt;South&gt;Mangalore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/10/2019 09:51:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangalore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India&gt;South&gt;Bangalore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/10/2019 17:00:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">England&gt;North&gt;London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/01/2020 15:14:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CallCentre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore&gt;SingtelTDM&gt;CallCentre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/01/2020 15:15:23</t>
+    <t xml:space="preserve">27/04/2020 17:54:45</t>
   </si>
   <si>
     <t xml:space="preserve">Team</t>
   </si>
   <si>
-    <t xml:space="preserve">Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">England&gt;North&gt;London&gt;Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/01/2020 15:15:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProductQA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India&gt;South&gt;Bangalore&gt;ProductQA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/10/2019 17:00:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProjectQA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India&gt;South&gt;Mangalore&gt;ProjectQA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/10/2019 09:52:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phillips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dell&gt;HP&gt;Samsung&gt;Phillips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/03/2020 15:46:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amereica&gt;Washing Tone&gt;Branch&gt;Coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/01/2020 15:15:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan&gt;Tokiyo&gt;News&gt;Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/02/2020 14:15:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDMSupport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore&gt;SingtelTDM&gt;CallCentre&gt;TDMSupport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/01/2020 15:15:30</t>
+    <t xml:space="preserve">Test Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NewZealand&gt;Oceania&gt;IT Department&gt;Test Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/04/2020 17:55:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TeamAksh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH&gt;Digi&gt;accounts&gt;TeamAksh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indiatetherfi\akshith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/12/2018 18:58:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India&gt;DivisionIndia1&gt;DepIndia1&gt;Team1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/07/2019 15:51:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India&gt;DivisionIndia1&gt;DepIndia2&gt;Team22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/07/2019 15:55:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India&gt;DivisionIndia1&gt;DepIndia2&gt;Team2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/07/2019 15:54:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India&gt;DivisionIndia1&gt;DepIndia1&gt;Team11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/07/2019 15:57:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India&gt;DivisionIndia2&gt;Dep1&gt;T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/07/2019 15:58:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India&gt;DivisionIndia2&gt;Dep2&gt;T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/07/2019 15:59:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AustriaTeam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autria&gt;Div2&gt;Depart&gt;AustriaTeam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/09/2018 14:31:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CreditTeam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH&gt;Digi&gt;accounts&gt;CreditTeam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/08/2018 15:36:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH&gt;Digi&gt;accounts&gt;trere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IndiaTetherfi\akshith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/08/2018 18:48:54</t>
   </si>
 </sst>
 </file>
@@ -390,9 +411,9 @@
   <sheetFormatPr x14ac:dyDescent="0.25" customHeight="1" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" customWidth="1" width="15.714285714285714" bestFit="1"/>
-    <col min="2" max="2" customWidth="1" width="13.714285714285714" bestFit="1"/>
+    <col min="2" max="2" customWidth="1" width="14.714285714285714" bestFit="1"/>
     <col min="3" max="3" customWidth="1" width="42.714285714285715" bestFit="1"/>
-    <col min="4" max="4" customWidth="1" width="24.714285714285715" bestFit="1"/>
+    <col min="4" max="4" customWidth="1" width="27.714285714285715" bestFit="1"/>
     <col min="5" max="5" customWidth="1" width="19.714285714285715" bestFit="1"/>
   </cols>
   <sheetData>
@@ -441,10 +462,10 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
@@ -452,16 +473,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
@@ -469,16 +490,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.25">
@@ -486,16 +507,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
@@ -503,458 +524,458 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/DownloadedFiles/Organizational Structure.xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Organizational Structure.xlsx
@@ -34,33 +34,99 @@
     <t xml:space="preserve">Last Changed On</t>
   </si>
   <si>
+    <t xml:space="preserve">Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country Head&gt;London&gt;sales&gt;Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC2AMAZ-N8SAHHO\Administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/06/2021 13:08:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Division</t>
+  </si>
+  <si>
+    <t xml:space="preserve">London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country Head&gt;London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/06/2021 13:07:59</t>
+  </si>
+  <si>
     <t xml:space="preserve">Country</t>
   </si>
   <si>
+    <t xml:space="preserve">NewZealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/06/2021 20:33:24</t>
+  </si>
+  <si>
     <t xml:space="preserve">Country Head</t>
   </si>
   <si>
     <t xml:space="preserve">tetherfi</t>
   </si>
   <si>
-    <t xml:space="preserve">Division</t>
-  </si>
-  <si>
-    <t xml:space="preserve">London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country Head&gt;London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EC2AMAZ-N8SAHHO\Administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/06/2021 13:07:59</t>
+    <t xml:space="preserve">SG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/05/2021 11:27:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/06/2021 13:09:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India&gt;South</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/06/2021 13:10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SG&gt;Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/05/2021 11:27:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oceania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NewZealand&gt;Oceania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/06/2021 20:33:41</t>
   </si>
   <si>
     <t xml:space="preserve">Department</t>
   </si>
   <si>
+    <t xml:space="preserve">IT Department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NewZealand&gt;Oceania&gt;IT Department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/06/2021 20:33:59</t>
+  </si>
+  <si>
     <t xml:space="preserve">sales</t>
   </si>
   <si>
@@ -70,33 +136,6 @@
     <t xml:space="preserve">17/05/2021 06:59:59</t>
   </si>
   <si>
-    <t xml:space="preserve">Team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country Head&gt;London&gt;sales&gt;Project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/06/2021 13:08:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25/05/2021 11:27:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SG&gt;Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25/05/2021 11:27:43</t>
-  </si>
-  <si>
     <t xml:space="preserve">Email Dept</t>
   </si>
   <si>
@@ -106,6 +145,24 @@
     <t xml:space="preserve">25/05/2021 11:28:01</t>
   </si>
   <si>
+    <t xml:space="preserve">Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India&gt;South&gt;Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/06/2021 13:10:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProductQA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India&gt;South&gt;Bangalore&gt;ProductQA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/06/2021 13:10:51</t>
+  </si>
+  <si>
     <t xml:space="preserve">Email Team</t>
   </si>
   <si>
@@ -113,63 +170,6 @@
   </si>
   <si>
     <t xml:space="preserve">25/05/2021 11:28:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/06/2021 13:09:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India&gt;South</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/06/2021 13:10:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangalore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India&gt;South&gt;Bangalore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/06/2021 13:10:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProductQA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India&gt;South&gt;Bangalore&gt;ProductQA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/06/2021 13:10:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NewZealand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/06/2021 15:21:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oceania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NewZealand&gt;Oceania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/06/2021 15:21:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT Department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NewZealand&gt;Oceania&gt;IT Department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/06/2021 15:22:10</t>
   </si>
 </sst>
 </file>
@@ -277,41 +277,44 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>16</v>
@@ -319,169 +322,166 @@
     </row>
     <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
         <v>40</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
         <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>44</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
@@ -498,7 +498,7 @@
         <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>47</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
         <v>48</v>
@@ -515,7 +515,7 @@
         <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>50</v>

--- a/ocms/src/test/resources/DownloadedFiles/Organizational Structure.xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Organizational Structure.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="737">
   <si>
     <t xml:space="preserve">Level Hierarchy</t>
   </si>
@@ -46,22 +46,52 @@
     <t xml:space="preserve">16/06/2021 14:34:43</t>
   </si>
   <si>
+    <t xml:space="preserve">Manchester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/09/2020 14:12:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NewZealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/08/2021 15:36:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QATETHERFI\Administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/08/2021 19:15:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRSCountry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/05/2021 17:58:07</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aus</t>
   </si>
   <si>
     <t xml:space="preserve">31/03/2021 16:21:34</t>
   </si>
   <si>
-    <t xml:space="preserve">TRSCountry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24/05/2021 17:58:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24/09/2020 14:12:30</t>
+    <t xml:space="preserve">belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qatetherfi\amy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/01/2021 16:20:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/01/2021 18:35:37</t>
   </si>
   <si>
     <t xml:space="preserve">tmac</t>
@@ -73,30 +103,6 @@
     <t xml:space="preserve">21/04/2021 18:15:11</t>
   </si>
   <si>
-    <t xml:space="preserve">belgium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qatetherfi\amy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/01/2021 16:20:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20/01/2021 18:35:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NewZealand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QATETHERFI\Administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/07/2021 01:08:28</t>
-  </si>
-  <si>
     <t xml:space="preserve">Country1</t>
   </si>
   <si>
@@ -346,6 +352,42 @@
     <t xml:space="preserve">01/10/2019 16:59:45</t>
   </si>
   <si>
+    <t xml:space="preserve">Oceania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NewZealand&gt;Oceania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/08/2021 15:37:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">divisio4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">country4&gt;divisio4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/04/2020 14:21:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Division11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">country4&gt;Division11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/04/2020 14:22:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sydney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aus&gt;Sydney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31/03/2021 16:22:25</t>
+  </si>
+  <si>
     <t xml:space="preserve">TRSDivison</t>
   </si>
   <si>
@@ -355,15 +397,6 @@
     <t xml:space="preserve">24/05/2021 17:58:24</t>
   </si>
   <si>
-    <t xml:space="preserve">Sydney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aus&gt;Sydney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/03/2021 16:22:25</t>
-  </si>
-  <si>
     <t xml:space="preserve">York</t>
   </si>
   <si>
@@ -373,36 +406,54 @@
     <t xml:space="preserve">24/09/2020 14:13:32</t>
   </si>
   <si>
-    <t xml:space="preserve">Oceania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NewZealand&gt;Oceania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/07/2021 01:08:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">divisio4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">country4&gt;divisio4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/04/2020 14:21:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Division11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">country4&gt;Division11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/04/2020 14:22:31</t>
-  </si>
-  <si>
     <t xml:space="preserve">Department</t>
   </si>
   <si>
+    <t xml:space="preserve">IT Department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NewZealand&gt;Oceania&gt;IT Department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/08/2021 15:37:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRSDept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRSCountry&gt;TRSDivison&gt;TRSDept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/05/2021 17:58:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cricket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aus&gt;Sydney&gt;Cricket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31/03/2021 16:22:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depat10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore&gt;Houggang&gt;depat10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/04/2020 14:31:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dep8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">country4&gt;Division11&gt;dep8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/04/2020 14:27:02</t>
+  </si>
+  <si>
     <t xml:space="preserve">dep6</t>
   </si>
   <si>
@@ -448,42 +499,6 @@
     <t xml:space="preserve">07/04/2020 14:16:54</t>
   </si>
   <si>
-    <t xml:space="preserve">Cricket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aus&gt;Sydney&gt;Cricket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/03/2021 16:22:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRSDept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRSCountry&gt;TRSDivison&gt;TRSDept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24/05/2021 17:58:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dep8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">country4&gt;Division11&gt;dep8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/04/2020 14:27:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">depat10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore&gt;Houggang&gt;depat10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/04/2020 14:31:22</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cambridge</t>
   </si>
   <si>
@@ -493,15 +508,6 @@
     <t xml:space="preserve">24/09/2020 14:13:59</t>
   </si>
   <si>
-    <t xml:space="preserve">IT Department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NewZealand&gt;Oceania&gt;IT Department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/07/2021 01:09:04</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bangalore</t>
   </si>
   <si>
@@ -1585,6 +1591,15 @@
     <t xml:space="preserve">07/04/2020 14:43:21</t>
   </si>
   <si>
+    <t xml:space="preserve">Agent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">America&gt;Washing Tone&gt;Branch&gt;Agent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/08/2021 18:43:05</t>
+  </si>
+  <si>
     <t xml:space="preserve">Team29</t>
   </si>
   <si>
@@ -2080,6 +2095,123 @@
     <t xml:space="preserve">08/04/2020 20:34:21</t>
   </si>
   <si>
+    <t xml:space="preserve">team3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country1&gt;Division1&gt;department10&gt;team3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/04/2020 14:17:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">team5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country1&gt;Division1&gt;Department3&gt;team5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/04/2020 14:17:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">team7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country1&gt;Division1&gt;deaprtment6&gt;team7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/04/2020 14:18:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">team8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country2&gt;Divisio2&gt;departmet2&gt;team8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/04/2020 14:18:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country2&gt;Divisio2&gt;departmet3&gt;Team9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/04/2020 14:19:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">team10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country3&gt;Division3&gt;Deprtmen6 &gt;team10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/04/2020 14:19:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">team13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">country4&gt;divisio4&gt;dep6&gt;team13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/04/2020 14:26:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">team12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">country4&gt;Division4&gt;department4&gt;team12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/04/2020 14:23:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">News</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country1&gt;Division1&gt;deaprtment6&gt;News</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/04/2020 14:28:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India&gt;South&gt;Bangalore&gt;Dell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/04/2020 14:29:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">team14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country3&gt;Division3&gt;Deprtmen6 &gt;team14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/04/2020 14:29:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">team15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">country4&gt;Division4&gt;department4&gt;team15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/04/2020 14:30:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">team16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore&gt;SingtelTDM&gt;CallCentre&gt;team16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/04/2020 14:30:53</t>
+  </si>
+  <si>
     <t xml:space="preserve">team17</t>
   </si>
   <si>
@@ -2089,51 +2221,6 @@
     <t xml:space="preserve">07/04/2020 14:31:55</t>
   </si>
   <si>
-    <t xml:space="preserve">News</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country1&gt;Division1&gt;deaprtment6&gt;News</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/04/2020 14:28:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India&gt;South&gt;Bangalore&gt;Dell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/04/2020 14:29:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">team14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country3&gt;Division3&gt;Deprtmen6 &gt;team14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/04/2020 14:29:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">team15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">country4&gt;Division4&gt;department4&gt;team15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/04/2020 14:30:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">team16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore&gt;SingtelTDM&gt;CallCentre&gt;team16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/04/2020 14:30:53</t>
-  </si>
-  <si>
     <t xml:space="preserve">TRSTeam</t>
   </si>
   <si>
@@ -2141,78 +2228,6 @@
   </si>
   <si>
     <t xml:space="preserve">24/05/2021 17:59:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">team3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country1&gt;Division1&gt;department10&gt;team3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/04/2020 14:17:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">team5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country1&gt;Division1&gt;Department3&gt;team5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/04/2020 14:17:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">team7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country1&gt;Division1&gt;deaprtment6&gt;team7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/04/2020 14:18:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">team8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country2&gt;Divisio2&gt;departmet2&gt;team8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/04/2020 14:18:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country2&gt;Divisio2&gt;departmet3&gt;Team9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/04/2020 14:19:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">team10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country3&gt;Division3&gt;Deprtmen6 &gt;team10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/04/2020 14:19:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">team13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">country4&gt;divisio4&gt;dep6&gt;team13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/04/2020 14:26:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">team12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">country4&gt;Division4&gt;department4&gt;team12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/04/2020 14:23:48</t>
   </si>
 </sst>
 </file>
@@ -2280,7 +2295,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E249"/>
+  <dimension ref="A1:E251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane state="frozen" ySplit="1" topLeftCell="A2"/>
@@ -2374,10 +2389,10 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.25">
@@ -2385,13 +2400,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
@@ -2408,10 +2423,10 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.25">
@@ -2419,13 +2434,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
@@ -2442,10 +2457,10 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
@@ -2453,13 +2468,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>27</v>
@@ -2714,10 +2729,10 @@
         <v>56</v>
       </c>
       <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="26" x14ac:dyDescent="0.25">
@@ -2725,13 +2740,13 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="s">
         <v>59</v>
-      </c>
-      <c r="C26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" t="s">
-        <v>57</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>60</v>
@@ -2748,7 +2763,7 @@
         <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>62</v>
@@ -2756,3776 +2771,3810 @@
     </row>
     <row r="28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
         <v>63</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="29" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
         <v>67</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
         <v>70</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="D30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
         <v>73</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="D31" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="32" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
         <v>76</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
         <v>79</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="34" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" t="s">
         <v>82</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="35" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s">
         <v>85</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
         <v>88</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="37" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" t="s">
         <v>91</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="38" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" t="s">
         <v>94</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="39" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" t="s">
         <v>97</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="40" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" t="s">
         <v>100</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="41" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" t="s">
         <v>103</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="42" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" t="s">
         <v>106</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="D42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="43" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" t="s">
         <v>109</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="44" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" t="s">
         <v>112</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" t="s">
         <v>115</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="D45" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="46" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" t="s">
         <v>118</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D46" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="47" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" t="s">
         <v>121</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="48" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" t="s">
         <v>124</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="49" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" t="s">
         <v>127</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C49" t="s">
-        <v>129</v>
-      </c>
-      <c r="D49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="50" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B50" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" t="s">
         <v>131</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="D50" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="51" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B51" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" t="s">
         <v>134</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="52" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B52" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" t="s">
         <v>137</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="D52" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="53" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B53" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" t="s">
         <v>140</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="D53" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="54" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B54" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" t="s">
         <v>143</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="D54" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="55" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B55" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" t="s">
         <v>146</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="D55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="56" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" t="s">
         <v>149</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="D56" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="57" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" t="s">
         <v>152</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="D57" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="58" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B58" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" t="s">
         <v>155</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="D58" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="59" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B59" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" t="s">
         <v>158</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="D59" t="s">
-        <v>24</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="60" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B60" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" t="s">
         <v>161</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="D60" t="s">
-        <v>57</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="61" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B61" t="s">
+        <v>163</v>
+      </c>
+      <c r="C61" t="s">
         <v>164</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="D61" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="62" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B62" t="s">
+        <v>166</v>
+      </c>
+      <c r="C62" t="s">
         <v>167</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="D62" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="63" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B63" t="s">
+        <v>169</v>
+      </c>
+      <c r="C63" t="s">
         <v>170</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="D63" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="64" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B64" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" t="s">
         <v>173</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="D64" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="65" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B65" t="s">
+        <v>175</v>
+      </c>
+      <c r="C65" t="s">
         <v>176</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="D65" t="s">
-        <v>57</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="66" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B66" t="s">
+        <v>178</v>
+      </c>
+      <c r="C66" t="s">
         <v>179</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
+        <v>59</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="D66" t="s">
-        <v>57</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="67" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B67" t="s">
+        <v>181</v>
+      </c>
+      <c r="C67" t="s">
         <v>182</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
+        <v>59</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="D67" t="s">
-        <v>57</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="68" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B68" t="s">
+        <v>184</v>
+      </c>
+      <c r="C68" t="s">
         <v>185</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
+        <v>59</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="D68" t="s">
-        <v>57</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="69" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>129</v>
+      </c>
+      <c r="B69" t="s">
+        <v>187</v>
+      </c>
+      <c r="C69" t="s">
         <v>188</v>
       </c>
-      <c r="B69" t="s">
+      <c r="D69" t="s">
+        <v>59</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C69" t="s">
-        <v>190</v>
-      </c>
-      <c r="D69" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="70" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B70" t="s">
+        <v>191</v>
+      </c>
+      <c r="C70" t="s">
         <v>192</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="D70" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="71" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B71" t="s">
+        <v>194</v>
+      </c>
+      <c r="C71" t="s">
         <v>195</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="D71" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="72" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B72" t="s">
+        <v>197</v>
+      </c>
+      <c r="C72" t="s">
         <v>198</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="D72" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="73" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B73" t="s">
+        <v>200</v>
+      </c>
+      <c r="C73" t="s">
         <v>201</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="D73" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="74" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B74" t="s">
+        <v>203</v>
+      </c>
+      <c r="C74" t="s">
         <v>204</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="D74" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="75" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B75" t="s">
+        <v>206</v>
+      </c>
+      <c r="C75" t="s">
         <v>207</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="D75" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="76" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B76" t="s">
+        <v>209</v>
+      </c>
+      <c r="C76" t="s">
         <v>210</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="D76" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="77" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B77" t="s">
+        <v>212</v>
+      </c>
+      <c r="C77" t="s">
         <v>213</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="D77" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="78" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B78" t="s">
+        <v>215</v>
+      </c>
+      <c r="C78" t="s">
         <v>216</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="D78" t="s">
-        <v>7</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="79" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B79" t="s">
+        <v>218</v>
+      </c>
+      <c r="C79" t="s">
         <v>219</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="D79" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="80" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B80" t="s">
+        <v>221</v>
+      </c>
+      <c r="C80" t="s">
         <v>222</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="D80" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="81" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B81" t="s">
+        <v>224</v>
+      </c>
+      <c r="C81" t="s">
         <v>225</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="D81" t="s">
-        <v>7</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="82" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B82" t="s">
+        <v>227</v>
+      </c>
+      <c r="C82" t="s">
         <v>228</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="D82" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="83" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B83" t="s">
+        <v>230</v>
+      </c>
+      <c r="C83" t="s">
         <v>231</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="D83" t="s">
-        <v>7</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="84" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B84" t="s">
+        <v>233</v>
+      </c>
+      <c r="C84" t="s">
         <v>234</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="D84" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="85" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B85" t="s">
+        <v>236</v>
+      </c>
+      <c r="C85" t="s">
         <v>237</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="D85" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="86" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B86" t="s">
+        <v>239</v>
+      </c>
+      <c r="C86" t="s">
         <v>240</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="D86" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="87" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B87" t="s">
+        <v>242</v>
+      </c>
+      <c r="C87" t="s">
         <v>243</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="D87" t="s">
-        <v>7</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="88" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B88" t="s">
+        <v>245</v>
+      </c>
+      <c r="C88" t="s">
         <v>246</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="D88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="89" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B89" t="s">
+        <v>248</v>
+      </c>
+      <c r="C89" t="s">
         <v>249</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="D89" t="s">
-        <v>7</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="90" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B90" t="s">
+        <v>251</v>
+      </c>
+      <c r="C90" t="s">
         <v>252</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="D90" t="s">
-        <v>7</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="91" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B91" t="s">
+        <v>254</v>
+      </c>
+      <c r="C91" t="s">
         <v>255</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="D91" t="s">
-        <v>7</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="92" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B92" t="s">
+        <v>257</v>
+      </c>
+      <c r="C92" t="s">
         <v>258</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="D92" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="93" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B93" t="s">
+        <v>260</v>
+      </c>
+      <c r="C93" t="s">
         <v>261</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="D93" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="94" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B94" t="s">
+        <v>263</v>
+      </c>
+      <c r="C94" t="s">
         <v>264</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="D94" t="s">
-        <v>7</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="95" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B95" t="s">
+        <v>266</v>
+      </c>
+      <c r="C95" t="s">
         <v>267</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="D95" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="96" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B96" t="s">
+        <v>269</v>
+      </c>
+      <c r="C96" t="s">
         <v>270</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="D96" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="97" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B97" t="s">
+        <v>272</v>
+      </c>
+      <c r="C97" t="s">
         <v>273</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="D97" t="s">
-        <v>7</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="98" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B98" t="s">
+        <v>275</v>
+      </c>
+      <c r="C98" t="s">
         <v>276</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="D98" t="s">
-        <v>7</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="99" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B99" t="s">
+        <v>278</v>
+      </c>
+      <c r="C99" t="s">
         <v>279</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="D99" t="s">
-        <v>7</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="100" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B100" t="s">
+        <v>281</v>
+      </c>
+      <c r="C100" t="s">
         <v>282</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="D100" t="s">
-        <v>7</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="101" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B101" t="s">
+        <v>284</v>
+      </c>
+      <c r="C101" t="s">
         <v>285</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="D101" t="s">
-        <v>7</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="102" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B102" t="s">
+        <v>287</v>
+      </c>
+      <c r="C102" t="s">
         <v>288</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="D102" t="s">
-        <v>7</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="103" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B103" t="s">
+        <v>290</v>
+      </c>
+      <c r="C103" t="s">
         <v>291</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="D103" t="s">
-        <v>7</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="104" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B104" t="s">
+        <v>293</v>
+      </c>
+      <c r="C104" t="s">
         <v>294</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="D104" t="s">
-        <v>7</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="105" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B105" t="s">
+        <v>296</v>
+      </c>
+      <c r="C105" t="s">
         <v>297</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="D105" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="106" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B106" t="s">
+        <v>299</v>
+      </c>
+      <c r="C106" t="s">
         <v>300</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="D106" t="s">
-        <v>7</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="107" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B107" t="s">
+        <v>302</v>
+      </c>
+      <c r="C107" t="s">
         <v>303</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="D107" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="108" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B108" t="s">
+        <v>305</v>
+      </c>
+      <c r="C108" t="s">
         <v>306</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="D108" t="s">
-        <v>7</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="109" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B109" t="s">
+        <v>308</v>
+      </c>
+      <c r="C109" t="s">
         <v>309</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="D109" t="s">
-        <v>7</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="110" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B110" t="s">
+        <v>311</v>
+      </c>
+      <c r="C110" t="s">
         <v>312</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="D110" t="s">
-        <v>7</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="111" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B111" t="s">
+        <v>314</v>
+      </c>
+      <c r="C111" t="s">
         <v>315</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="D111" t="s">
-        <v>57</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="112" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B112" t="s">
+        <v>317</v>
+      </c>
+      <c r="C112" t="s">
         <v>318</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
+        <v>59</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="D112" t="s">
-        <v>7</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="113" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B113" t="s">
+        <v>320</v>
+      </c>
+      <c r="C113" t="s">
         <v>321</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="D113" t="s">
-        <v>7</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="114" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B114" t="s">
+        <v>323</v>
+      </c>
+      <c r="C114" t="s">
         <v>324</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="D114" t="s">
-        <v>7</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="115" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B115" t="s">
+        <v>326</v>
+      </c>
+      <c r="C115" t="s">
         <v>327</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="D115" t="s">
-        <v>7</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="116" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B116" t="s">
+        <v>329</v>
+      </c>
+      <c r="C116" t="s">
         <v>330</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="D116" t="s">
-        <v>7</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="117" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B117" t="s">
+        <v>332</v>
+      </c>
+      <c r="C117" t="s">
         <v>333</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="D117" t="s">
-        <v>7</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="118" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B118" t="s">
+        <v>335</v>
+      </c>
+      <c r="C118" t="s">
         <v>336</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="D118" t="s">
-        <v>7</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="119" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B119" t="s">
+        <v>338</v>
+      </c>
+      <c r="C119" t="s">
         <v>339</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="D119" t="s">
-        <v>7</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="120" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B120" t="s">
+        <v>341</v>
+      </c>
+      <c r="C120" t="s">
         <v>342</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="D120" t="s">
-        <v>7</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="121" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B121" t="s">
+        <v>344</v>
+      </c>
+      <c r="C121" t="s">
         <v>345</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="D121" t="s">
-        <v>7</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="122" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B122" t="s">
+        <v>347</v>
+      </c>
+      <c r="C122" t="s">
         <v>348</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="D122" t="s">
-        <v>7</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="123" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B123" t="s">
+        <v>350</v>
+      </c>
+      <c r="C123" t="s">
         <v>351</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="D123" t="s">
-        <v>7</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="124" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B124" t="s">
+        <v>353</v>
+      </c>
+      <c r="C124" t="s">
         <v>354</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="D124" t="s">
-        <v>7</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="125" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B125" t="s">
+        <v>356</v>
+      </c>
+      <c r="C125" t="s">
         <v>357</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="D125" t="s">
-        <v>7</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="126" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B126" t="s">
+        <v>359</v>
+      </c>
+      <c r="C126" t="s">
         <v>360</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="D126" t="s">
-        <v>7</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="127" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B127" t="s">
+        <v>362</v>
+      </c>
+      <c r="C127" t="s">
         <v>363</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="D127" t="s">
-        <v>7</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="128" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B128" t="s">
+        <v>365</v>
+      </c>
+      <c r="C128" t="s">
         <v>366</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="D128" t="s">
-        <v>7</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="129" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B129" t="s">
+        <v>368</v>
+      </c>
+      <c r="C129" t="s">
         <v>369</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="D129" t="s">
-        <v>7</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="130" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B130" t="s">
+        <v>371</v>
+      </c>
+      <c r="C130" t="s">
         <v>372</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="D130" t="s">
-        <v>7</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="131" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B131" t="s">
+        <v>374</v>
+      </c>
+      <c r="C131" t="s">
         <v>375</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="D131" t="s">
-        <v>7</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="132" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B132" t="s">
+        <v>377</v>
+      </c>
+      <c r="C132" t="s">
         <v>378</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="D132" t="s">
-        <v>7</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="133" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B133" t="s">
+        <v>380</v>
+      </c>
+      <c r="C133" t="s">
         <v>381</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="D133" t="s">
-        <v>7</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="134" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B134" t="s">
+        <v>383</v>
+      </c>
+      <c r="C134" t="s">
         <v>384</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="D134" t="s">
-        <v>7</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="135" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B135" t="s">
+        <v>386</v>
+      </c>
+      <c r="C135" t="s">
         <v>387</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="D135" t="s">
-        <v>7</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="136" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B136" t="s">
+        <v>389</v>
+      </c>
+      <c r="C136" t="s">
         <v>390</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="D136" t="s">
-        <v>7</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="137" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B137" t="s">
+        <v>392</v>
+      </c>
+      <c r="C137" t="s">
         <v>393</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="D137" t="s">
-        <v>7</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="138" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B138" t="s">
+        <v>395</v>
+      </c>
+      <c r="C138" t="s">
         <v>396</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="D138" t="s">
-        <v>7</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="139" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B139" t="s">
+        <v>398</v>
+      </c>
+      <c r="C139" t="s">
         <v>399</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="D139" t="s">
-        <v>7</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="140" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B140" t="s">
+        <v>401</v>
+      </c>
+      <c r="C140" t="s">
         <v>402</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="D140" t="s">
-        <v>7</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="141" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B141" t="s">
+        <v>404</v>
+      </c>
+      <c r="C141" t="s">
         <v>405</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="D141" t="s">
-        <v>7</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="142" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B142" t="s">
+        <v>407</v>
+      </c>
+      <c r="C142" t="s">
         <v>408</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="D142" t="s">
-        <v>7</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="143" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B143" t="s">
+        <v>410</v>
+      </c>
+      <c r="C143" t="s">
         <v>411</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="D143" t="s">
-        <v>7</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="144" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B144" t="s">
+        <v>413</v>
+      </c>
+      <c r="C144" t="s">
         <v>414</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="D144" t="s">
-        <v>7</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="145" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B145" t="s">
+        <v>416</v>
+      </c>
+      <c r="C145" t="s">
         <v>417</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="D145" t="s">
-        <v>7</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="146" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B146" t="s">
+        <v>419</v>
+      </c>
+      <c r="C146" t="s">
         <v>420</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="D146" t="s">
-        <v>7</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="147" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B147" t="s">
+        <v>422</v>
+      </c>
+      <c r="C147" t="s">
         <v>423</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
+        <v>7</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="D147" t="s">
-        <v>7</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="148" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B148" t="s">
+        <v>425</v>
+      </c>
+      <c r="C148" t="s">
         <v>426</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
+        <v>7</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="D148" t="s">
-        <v>7</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="149" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B149" t="s">
+        <v>428</v>
+      </c>
+      <c r="C149" t="s">
         <v>429</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
+        <v>7</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="D149" t="s">
-        <v>7</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="150" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B150" t="s">
+        <v>431</v>
+      </c>
+      <c r="C150" t="s">
         <v>432</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="D150" t="s">
-        <v>7</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="151" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B151" t="s">
+        <v>434</v>
+      </c>
+      <c r="C151" t="s">
         <v>435</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="D151" t="s">
-        <v>7</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="152" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B152" t="s">
+        <v>437</v>
+      </c>
+      <c r="C152" t="s">
         <v>438</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="D152" t="s">
-        <v>7</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="153" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B153" t="s">
+        <v>440</v>
+      </c>
+      <c r="C153" t="s">
         <v>441</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
+        <v>7</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="D153" t="s">
-        <v>7</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="154" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B154" t="s">
+        <v>443</v>
+      </c>
+      <c r="C154" t="s">
         <v>444</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
+        <v>7</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="D154" t="s">
-        <v>7</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="155" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B155" t="s">
+        <v>446</v>
+      </c>
+      <c r="C155" t="s">
         <v>447</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="D155" t="s">
-        <v>7</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="156" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B156" t="s">
+        <v>449</v>
+      </c>
+      <c r="C156" t="s">
         <v>450</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
+        <v>7</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="D156" t="s">
-        <v>7</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="157" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B157" t="s">
+        <v>452</v>
+      </c>
+      <c r="C157" t="s">
         <v>453</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="D157" t="s">
-        <v>7</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="158" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B158" t="s">
+        <v>455</v>
+      </c>
+      <c r="C158" t="s">
         <v>456</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="D158" t="s">
-        <v>7</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="159" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B159" t="s">
+        <v>458</v>
+      </c>
+      <c r="C159" t="s">
         <v>459</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
+        <v>7</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D159" t="s">
-        <v>7</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="160" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B160" t="s">
+        <v>461</v>
+      </c>
+      <c r="C160" t="s">
         <v>462</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
+        <v>7</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="D160" t="s">
-        <v>7</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="161" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B161" t="s">
+        <v>464</v>
+      </c>
+      <c r="C161" t="s">
         <v>465</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
+        <v>7</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="D161" t="s">
-        <v>7</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="162" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B162" t="s">
+        <v>467</v>
+      </c>
+      <c r="C162" t="s">
         <v>468</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
+        <v>7</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>469</v>
-      </c>
-      <c r="D162" t="s">
-        <v>7</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="163" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B163" t="s">
+        <v>470</v>
+      </c>
+      <c r="C163" t="s">
         <v>471</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
+        <v>7</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="D163" t="s">
-        <v>7</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="164" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B164" t="s">
+        <v>473</v>
+      </c>
+      <c r="C164" t="s">
         <v>474</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
+        <v>7</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>475</v>
-      </c>
-      <c r="D164" t="s">
-        <v>7</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="165" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B165" t="s">
+        <v>476</v>
+      </c>
+      <c r="C165" t="s">
         <v>477</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="D165" t="s">
-        <v>7</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="166" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B166" t="s">
+        <v>479</v>
+      </c>
+      <c r="C166" t="s">
         <v>480</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
+        <v>7</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="D166" t="s">
-        <v>7</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="167" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B167" t="s">
+        <v>482</v>
+      </c>
+      <c r="C167" t="s">
         <v>483</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
+        <v>7</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="D167" t="s">
-        <v>7</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="168" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B168" t="s">
+        <v>485</v>
+      </c>
+      <c r="C168" t="s">
         <v>486</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="D168" t="s">
-        <v>7</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="169" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B169" t="s">
+        <v>488</v>
+      </c>
+      <c r="C169" t="s">
         <v>489</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
+        <v>7</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>490</v>
-      </c>
-      <c r="D169" t="s">
-        <v>7</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="170" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B170" t="s">
+        <v>491</v>
+      </c>
+      <c r="C170" t="s">
         <v>492</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
+        <v>7</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="D170" t="s">
-        <v>7</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="171" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B171" t="s">
+        <v>494</v>
+      </c>
+      <c r="C171" t="s">
         <v>495</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
+        <v>7</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="D171" t="s">
-        <v>57</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="172" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B172" t="s">
+        <v>497</v>
+      </c>
+      <c r="C172" t="s">
         <v>498</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
+        <v>59</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="D172" t="s">
-        <v>57</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="173" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B173" t="s">
+        <v>500</v>
+      </c>
+      <c r="C173" t="s">
         <v>501</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
+        <v>59</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>502</v>
-      </c>
-      <c r="D173" t="s">
-        <v>57</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="174" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B174" t="s">
+        <v>503</v>
+      </c>
+      <c r="C174" t="s">
         <v>504</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
+        <v>59</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="D174" t="s">
-        <v>7</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="175" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B175" t="s">
+        <v>506</v>
+      </c>
+      <c r="C175" t="s">
         <v>507</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
+        <v>7</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>508</v>
-      </c>
-      <c r="D175" t="s">
-        <v>57</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="176" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B176" t="s">
+        <v>509</v>
+      </c>
+      <c r="C176" t="s">
         <v>510</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
+        <v>59</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="D176" t="s">
-        <v>7</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="177" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B177" t="s">
+        <v>512</v>
+      </c>
+      <c r="C177" t="s">
         <v>513</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
+        <v>7</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>514</v>
-      </c>
-      <c r="D177" t="s">
-        <v>7</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="178" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B178" t="s">
+        <v>515</v>
+      </c>
+      <c r="C178" t="s">
         <v>516</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
+        <v>7</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>517</v>
-      </c>
-      <c r="D178" t="s">
-        <v>7</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="179" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B179" t="s">
+        <v>518</v>
+      </c>
+      <c r="C179" t="s">
         <v>519</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
+        <v>7</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="D179" t="s">
-        <v>7</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="180" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B180" t="s">
+        <v>521</v>
+      </c>
+      <c r="C180" t="s">
         <v>522</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
+        <v>7</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>523</v>
-      </c>
-      <c r="D180" t="s">
-        <v>7</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="181" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B181" t="s">
+        <v>524</v>
+      </c>
+      <c r="C181" t="s">
         <v>525</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
+        <v>14</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="D181" t="s">
-        <v>7</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="182" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B182" t="s">
+        <v>527</v>
+      </c>
+      <c r="C182" t="s">
         <v>528</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
+        <v>7</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="D182" t="s">
-        <v>7</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="183" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B183" t="s">
+        <v>530</v>
+      </c>
+      <c r="C183" t="s">
         <v>531</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
+        <v>7</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>532</v>
-      </c>
-      <c r="D183" t="s">
-        <v>7</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="184" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B184" t="s">
+        <v>533</v>
+      </c>
+      <c r="C184" t="s">
         <v>534</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
+        <v>7</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="D184" t="s">
-        <v>7</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="185" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B185" t="s">
+        <v>536</v>
+      </c>
+      <c r="C185" t="s">
         <v>537</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
+        <v>7</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>538</v>
-      </c>
-      <c r="D185" t="s">
-        <v>7</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="186" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B186" t="s">
+        <v>539</v>
+      </c>
+      <c r="C186" t="s">
         <v>540</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
+        <v>7</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="D186" t="s">
-        <v>7</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="187" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B187" t="s">
+        <v>542</v>
+      </c>
+      <c r="C187" t="s">
         <v>543</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
+        <v>7</v>
+      </c>
+      <c r="E187" s="2" t="s">
         <v>544</v>
-      </c>
-      <c r="D187" t="s">
-        <v>7</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="188" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B188" t="s">
+        <v>545</v>
+      </c>
+      <c r="C188" t="s">
         <v>546</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
+        <v>7</v>
+      </c>
+      <c r="E188" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="D188" t="s">
-        <v>7</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="189" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B189" t="s">
+        <v>548</v>
+      </c>
+      <c r="C189" t="s">
         <v>549</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
+        <v>7</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>550</v>
-      </c>
-      <c r="D189" t="s">
-        <v>7</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="190" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B190" t="s">
+        <v>551</v>
+      </c>
+      <c r="C190" t="s">
         <v>552</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
+        <v>7</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="D190" t="s">
-        <v>7</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="191" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B191" t="s">
+        <v>554</v>
+      </c>
+      <c r="C191" t="s">
         <v>555</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
+        <v>7</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>556</v>
-      </c>
-      <c r="D191" t="s">
-        <v>7</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="192" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B192" t="s">
+        <v>557</v>
+      </c>
+      <c r="C192" t="s">
         <v>558</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
+        <v>7</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="D192" t="s">
-        <v>7</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="193" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B193" t="s">
+        <v>560</v>
+      </c>
+      <c r="C193" t="s">
         <v>561</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
+        <v>7</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>562</v>
-      </c>
-      <c r="D193" t="s">
-        <v>7</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="194" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B194" t="s">
+        <v>563</v>
+      </c>
+      <c r="C194" t="s">
         <v>564</v>
       </c>
-      <c r="C194" t="s">
+      <c r="D194" t="s">
+        <v>7</v>
+      </c>
+      <c r="E194" s="2" t="s">
         <v>565</v>
-      </c>
-      <c r="D194" t="s">
-        <v>7</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="195" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B195" t="s">
+        <v>566</v>
+      </c>
+      <c r="C195" t="s">
         <v>567</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D195" t="s">
+        <v>7</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="D195" t="s">
-        <v>7</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="196" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B196" t="s">
+        <v>569</v>
+      </c>
+      <c r="C196" t="s">
         <v>570</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D196" t="s">
+        <v>7</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="D196" t="s">
-        <v>7</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="197" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B197" t="s">
+        <v>572</v>
+      </c>
+      <c r="C197" t="s">
         <v>573</v>
       </c>
-      <c r="C197" t="s">
+      <c r="D197" t="s">
+        <v>7</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>574</v>
-      </c>
-      <c r="D197" t="s">
-        <v>7</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="198" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B198" t="s">
+        <v>575</v>
+      </c>
+      <c r="C198" t="s">
         <v>576</v>
       </c>
-      <c r="C198" t="s">
+      <c r="D198" t="s">
+        <v>7</v>
+      </c>
+      <c r="E198" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="D198" t="s">
-        <v>7</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="199" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B199" t="s">
+        <v>578</v>
+      </c>
+      <c r="C199" t="s">
         <v>579</v>
       </c>
-      <c r="C199" t="s">
+      <c r="D199" t="s">
+        <v>7</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="D199" t="s">
-        <v>7</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="200" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B200" t="s">
+        <v>581</v>
+      </c>
+      <c r="C200" t="s">
         <v>582</v>
       </c>
-      <c r="C200" t="s">
+      <c r="D200" t="s">
+        <v>7</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>583</v>
-      </c>
-      <c r="D200" t="s">
-        <v>7</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="201" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B201" t="s">
+        <v>584</v>
+      </c>
+      <c r="C201" t="s">
         <v>585</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
+        <v>7</v>
+      </c>
+      <c r="E201" s="2" t="s">
         <v>586</v>
-      </c>
-      <c r="D201" t="s">
-        <v>7</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="202" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B202" t="s">
+        <v>587</v>
+      </c>
+      <c r="C202" t="s">
         <v>588</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
+        <v>7</v>
+      </c>
+      <c r="E202" s="2" t="s">
         <v>589</v>
-      </c>
-      <c r="D202" t="s">
-        <v>7</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="203" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B203" t="s">
+        <v>590</v>
+      </c>
+      <c r="C203" t="s">
         <v>591</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203" s="2" t="s">
         <v>592</v>
-      </c>
-      <c r="D203" t="s">
-        <v>7</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="204" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B204" t="s">
+        <v>593</v>
+      </c>
+      <c r="C204" t="s">
         <v>594</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
+        <v>7</v>
+      </c>
+      <c r="E204" s="2" t="s">
         <v>595</v>
-      </c>
-      <c r="D204" t="s">
-        <v>7</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="205" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B205" t="s">
+        <v>596</v>
+      </c>
+      <c r="C205" t="s">
         <v>597</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205" s="2" t="s">
         <v>598</v>
-      </c>
-      <c r="D205" t="s">
-        <v>7</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="206" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B206" t="s">
+        <v>599</v>
+      </c>
+      <c r="C206" t="s">
         <v>600</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
+        <v>7</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>601</v>
-      </c>
-      <c r="D206" t="s">
-        <v>7</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="207" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B207" t="s">
+        <v>602</v>
+      </c>
+      <c r="C207" t="s">
         <v>603</v>
       </c>
-      <c r="C207" t="s">
+      <c r="D207" t="s">
+        <v>7</v>
+      </c>
+      <c r="E207" s="2" t="s">
         <v>604</v>
-      </c>
-      <c r="D207" t="s">
-        <v>7</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="208" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B208" t="s">
+        <v>605</v>
+      </c>
+      <c r="C208" t="s">
         <v>606</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
+        <v>7</v>
+      </c>
+      <c r="E208" s="2" t="s">
         <v>607</v>
-      </c>
-      <c r="D208" t="s">
-        <v>7</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="209" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B209" t="s">
+        <v>608</v>
+      </c>
+      <c r="C209" t="s">
         <v>609</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
+        <v>7</v>
+      </c>
+      <c r="E209" s="2" t="s">
         <v>610</v>
-      </c>
-      <c r="D209" t="s">
-        <v>7</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="210" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B210" t="s">
+        <v>611</v>
+      </c>
+      <c r="C210" t="s">
         <v>612</v>
       </c>
-      <c r="C210" t="s">
+      <c r="D210" t="s">
+        <v>7</v>
+      </c>
+      <c r="E210" s="2" t="s">
         <v>613</v>
-      </c>
-      <c r="D210" t="s">
-        <v>7</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="211" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B211" t="s">
+        <v>614</v>
+      </c>
+      <c r="C211" t="s">
         <v>615</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" t="s">
+        <v>7</v>
+      </c>
+      <c r="E211" s="2" t="s">
         <v>616</v>
-      </c>
-      <c r="D211" t="s">
-        <v>7</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="212" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B212" t="s">
+        <v>617</v>
+      </c>
+      <c r="C212" t="s">
         <v>618</v>
       </c>
-      <c r="C212" t="s">
+      <c r="D212" t="s">
+        <v>7</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>619</v>
-      </c>
-      <c r="D212" t="s">
-        <v>7</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="213" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B213" t="s">
+        <v>620</v>
+      </c>
+      <c r="C213" t="s">
         <v>621</v>
       </c>
-      <c r="C213" t="s">
+      <c r="D213" t="s">
+        <v>7</v>
+      </c>
+      <c r="E213" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="D213" t="s">
-        <v>7</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="214" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B214" t="s">
+        <v>623</v>
+      </c>
+      <c r="C214" t="s">
         <v>624</v>
       </c>
-      <c r="C214" t="s">
+      <c r="D214" t="s">
+        <v>7</v>
+      </c>
+      <c r="E214" s="2" t="s">
         <v>625</v>
-      </c>
-      <c r="D214" t="s">
-        <v>7</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="215" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B215" t="s">
+        <v>626</v>
+      </c>
+      <c r="C215" t="s">
         <v>627</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
+        <v>7</v>
+      </c>
+      <c r="E215" s="2" t="s">
         <v>628</v>
-      </c>
-      <c r="D215" t="s">
-        <v>7</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="216" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B216" t="s">
+        <v>629</v>
+      </c>
+      <c r="C216" t="s">
         <v>630</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
+        <v>7</v>
+      </c>
+      <c r="E216" s="2" t="s">
         <v>631</v>
-      </c>
-      <c r="D216" t="s">
-        <v>7</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="217" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B217" t="s">
+        <v>632</v>
+      </c>
+      <c r="C217" t="s">
         <v>633</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
+        <v>7</v>
+      </c>
+      <c r="E217" s="2" t="s">
         <v>634</v>
-      </c>
-      <c r="D217" t="s">
-        <v>7</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="218" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B218" t="s">
+        <v>635</v>
+      </c>
+      <c r="C218" t="s">
         <v>636</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
+        <v>7</v>
+      </c>
+      <c r="E218" s="2" t="s">
         <v>637</v>
-      </c>
-      <c r="D218" t="s">
-        <v>7</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="219" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B219" t="s">
+        <v>638</v>
+      </c>
+      <c r="C219" t="s">
         <v>639</v>
       </c>
-      <c r="C219" t="s">
+      <c r="D219" t="s">
+        <v>7</v>
+      </c>
+      <c r="E219" s="2" t="s">
         <v>640</v>
-      </c>
-      <c r="D219" t="s">
-        <v>7</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="220" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B220" t="s">
+        <v>641</v>
+      </c>
+      <c r="C220" t="s">
         <v>642</v>
       </c>
-      <c r="C220" t="s">
+      <c r="D220" t="s">
+        <v>7</v>
+      </c>
+      <c r="E220" s="2" t="s">
         <v>643</v>
-      </c>
-      <c r="D220" t="s">
-        <v>7</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="221" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B221" t="s">
+        <v>644</v>
+      </c>
+      <c r="C221" t="s">
         <v>645</v>
       </c>
-      <c r="C221" t="s">
+      <c r="D221" t="s">
+        <v>7</v>
+      </c>
+      <c r="E221" s="2" t="s">
         <v>646</v>
-      </c>
-      <c r="D221" t="s">
-        <v>7</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="222" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B222" t="s">
+        <v>647</v>
+      </c>
+      <c r="C222" t="s">
         <v>648</v>
       </c>
-      <c r="C222" t="s">
+      <c r="D222" t="s">
+        <v>7</v>
+      </c>
+      <c r="E222" s="2" t="s">
         <v>649</v>
-      </c>
-      <c r="D222" t="s">
-        <v>7</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="223" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B223" t="s">
+        <v>650</v>
+      </c>
+      <c r="C223" t="s">
         <v>651</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
+        <v>7</v>
+      </c>
+      <c r="E223" s="2" t="s">
         <v>652</v>
-      </c>
-      <c r="D223" t="s">
-        <v>7</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="224" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B224" t="s">
+        <v>653</v>
+      </c>
+      <c r="C224" t="s">
         <v>654</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
+        <v>7</v>
+      </c>
+      <c r="E224" s="2" t="s">
         <v>655</v>
-      </c>
-      <c r="D224" t="s">
-        <v>7</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="225" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B225" t="s">
+        <v>656</v>
+      </c>
+      <c r="C225" t="s">
         <v>657</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
+        <v>7</v>
+      </c>
+      <c r="E225" s="2" t="s">
         <v>658</v>
-      </c>
-      <c r="D225" t="s">
-        <v>7</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="226" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B226" t="s">
+        <v>659</v>
+      </c>
+      <c r="C226" t="s">
         <v>660</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
+        <v>7</v>
+      </c>
+      <c r="E226" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="D226" t="s">
-        <v>7</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="227" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B227" t="s">
+        <v>662</v>
+      </c>
+      <c r="C227" t="s">
         <v>663</v>
       </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
+        <v>7</v>
+      </c>
+      <c r="E227" s="2" t="s">
         <v>664</v>
-      </c>
-      <c r="D227" t="s">
-        <v>7</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="228" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B228" t="s">
+        <v>665</v>
+      </c>
+      <c r="C228" t="s">
         <v>666</v>
       </c>
-      <c r="C228" t="s">
+      <c r="D228" t="s">
+        <v>7</v>
+      </c>
+      <c r="E228" s="2" t="s">
         <v>667</v>
-      </c>
-      <c r="D228" t="s">
-        <v>7</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="229" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B229" t="s">
+        <v>668</v>
+      </c>
+      <c r="C229" t="s">
         <v>669</v>
       </c>
-      <c r="C229" t="s">
+      <c r="D229" t="s">
+        <v>7</v>
+      </c>
+      <c r="E229" s="2" t="s">
         <v>670</v>
-      </c>
-      <c r="D229" t="s">
-        <v>7</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="230" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B230" t="s">
+        <v>671</v>
+      </c>
+      <c r="C230" t="s">
         <v>672</v>
       </c>
-      <c r="C230" t="s">
+      <c r="D230" t="s">
+        <v>7</v>
+      </c>
+      <c r="E230" s="2" t="s">
         <v>673</v>
-      </c>
-      <c r="D230" t="s">
-        <v>7</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="231" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B231" t="s">
+        <v>674</v>
+      </c>
+      <c r="C231" t="s">
         <v>675</v>
       </c>
-      <c r="C231" t="s">
+      <c r="D231" t="s">
+        <v>7</v>
+      </c>
+      <c r="E231" s="2" t="s">
         <v>676</v>
-      </c>
-      <c r="D231" t="s">
-        <v>7</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="232" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B232" t="s">
+        <v>677</v>
+      </c>
+      <c r="C232" t="s">
         <v>678</v>
       </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
+        <v>7</v>
+      </c>
+      <c r="E232" s="2" t="s">
         <v>679</v>
-      </c>
-      <c r="D232" t="s">
-        <v>7</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="233" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B233" t="s">
+        <v>680</v>
+      </c>
+      <c r="C233" t="s">
         <v>681</v>
       </c>
-      <c r="C233" t="s">
+      <c r="D233" t="s">
+        <v>7</v>
+      </c>
+      <c r="E233" s="2" t="s">
         <v>682</v>
-      </c>
-      <c r="D233" t="s">
-        <v>7</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="234" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B234" t="s">
+        <v>683</v>
+      </c>
+      <c r="C234" t="s">
         <v>684</v>
       </c>
-      <c r="C234" t="s">
+      <c r="D234" t="s">
+        <v>7</v>
+      </c>
+      <c r="E234" s="2" t="s">
         <v>685</v>
-      </c>
-      <c r="D234" t="s">
-        <v>7</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="235" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B235" t="s">
+        <v>686</v>
+      </c>
+      <c r="C235" t="s">
         <v>687</v>
       </c>
-      <c r="C235" t="s">
+      <c r="D235" t="s">
+        <v>7</v>
+      </c>
+      <c r="E235" s="2" t="s">
         <v>688</v>
-      </c>
-      <c r="D235" t="s">
-        <v>7</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="236" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B236" t="s">
+        <v>689</v>
+      </c>
+      <c r="C236" t="s">
         <v>690</v>
       </c>
-      <c r="C236" t="s">
+      <c r="D236" t="s">
+        <v>7</v>
+      </c>
+      <c r="E236" s="2" t="s">
         <v>691</v>
-      </c>
-      <c r="D236" t="s">
-        <v>7</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="237" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B237" t="s">
+        <v>692</v>
+      </c>
+      <c r="C237" t="s">
         <v>693</v>
       </c>
-      <c r="C237" t="s">
+      <c r="D237" t="s">
+        <v>7</v>
+      </c>
+      <c r="E237" s="2" t="s">
         <v>694</v>
-      </c>
-      <c r="D237" t="s">
-        <v>7</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="238" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B238" t="s">
+        <v>695</v>
+      </c>
+      <c r="C238" t="s">
         <v>696</v>
       </c>
-      <c r="C238" t="s">
+      <c r="D238" t="s">
+        <v>7</v>
+      </c>
+      <c r="E238" s="2" t="s">
         <v>697</v>
-      </c>
-      <c r="D238" t="s">
-        <v>7</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="239" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B239" t="s">
+        <v>698</v>
+      </c>
+      <c r="C239" t="s">
         <v>699</v>
       </c>
-      <c r="C239" t="s">
+      <c r="D239" t="s">
+        <v>7</v>
+      </c>
+      <c r="E239" s="2" t="s">
         <v>700</v>
-      </c>
-      <c r="D239" t="s">
-        <v>7</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="240" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B240" t="s">
+        <v>701</v>
+      </c>
+      <c r="C240" t="s">
         <v>702</v>
       </c>
-      <c r="C240" t="s">
+      <c r="D240" t="s">
+        <v>7</v>
+      </c>
+      <c r="E240" s="2" t="s">
         <v>703</v>
-      </c>
-      <c r="D240" t="s">
-        <v>7</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="241" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B241" t="s">
+        <v>704</v>
+      </c>
+      <c r="C241" t="s">
         <v>705</v>
       </c>
-      <c r="C241" t="s">
+      <c r="D241" t="s">
+        <v>7</v>
+      </c>
+      <c r="E241" s="2" t="s">
         <v>706</v>
-      </c>
-      <c r="D241" t="s">
-        <v>7</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="242" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B242" t="s">
+        <v>707</v>
+      </c>
+      <c r="C242" t="s">
         <v>708</v>
       </c>
-      <c r="C242" t="s">
+      <c r="D242" t="s">
+        <v>7</v>
+      </c>
+      <c r="E242" s="2" t="s">
         <v>709</v>
-      </c>
-      <c r="D242" t="s">
-        <v>7</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="243" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B243" t="s">
+        <v>710</v>
+      </c>
+      <c r="C243" t="s">
         <v>711</v>
       </c>
-      <c r="C243" t="s">
+      <c r="D243" t="s">
+        <v>7</v>
+      </c>
+      <c r="E243" s="2" t="s">
         <v>712</v>
-      </c>
-      <c r="D243" t="s">
-        <v>7</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="244" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B244" t="s">
+        <v>713</v>
+      </c>
+      <c r="C244" t="s">
         <v>714</v>
       </c>
-      <c r="C244" t="s">
+      <c r="D244" t="s">
+        <v>7</v>
+      </c>
+      <c r="E244" s="2" t="s">
         <v>715</v>
-      </c>
-      <c r="D244" t="s">
-        <v>7</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="245" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B245" t="s">
+        <v>716</v>
+      </c>
+      <c r="C245" t="s">
         <v>717</v>
       </c>
-      <c r="C245" t="s">
+      <c r="D245" t="s">
+        <v>7</v>
+      </c>
+      <c r="E245" s="2" t="s">
         <v>718</v>
-      </c>
-      <c r="D245" t="s">
-        <v>7</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="246" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B246" t="s">
+        <v>719</v>
+      </c>
+      <c r="C246" t="s">
         <v>720</v>
       </c>
-      <c r="C246" t="s">
+      <c r="D246" t="s">
+        <v>7</v>
+      </c>
+      <c r="E246" s="2" t="s">
         <v>721</v>
-      </c>
-      <c r="D246" t="s">
-        <v>7</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="247" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B247" t="s">
+        <v>722</v>
+      </c>
+      <c r="C247" t="s">
         <v>723</v>
       </c>
-      <c r="C247" t="s">
+      <c r="D247" t="s">
+        <v>7</v>
+      </c>
+      <c r="E247" s="2" t="s">
         <v>724</v>
-      </c>
-      <c r="D247" t="s">
-        <v>7</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="248" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B248" t="s">
+        <v>725</v>
+      </c>
+      <c r="C248" t="s">
         <v>726</v>
       </c>
-      <c r="C248" t="s">
+      <c r="D248" t="s">
+        <v>7</v>
+      </c>
+      <c r="E248" s="2" t="s">
         <v>727</v>
-      </c>
-      <c r="D248" t="s">
-        <v>7</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="249" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B249" t="s">
+        <v>728</v>
+      </c>
+      <c r="C249" t="s">
         <v>729</v>
       </c>
-      <c r="C249" t="s">
+      <c r="D249" t="s">
+        <v>7</v>
+      </c>
+      <c r="E249" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="D249" t="s">
-        <v>7</v>
-      </c>
-      <c r="E249" s="2" t="s">
+    </row>
+    <row r="250" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>190</v>
+      </c>
+      <c r="B250" t="s">
         <v>731</v>
+      </c>
+      <c r="C250" t="s">
+        <v>732</v>
+      </c>
+      <c r="D250" t="s">
+        <v>7</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="251" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>190</v>
+      </c>
+      <c r="B251" t="s">
+        <v>734</v>
+      </c>
+      <c r="C251" t="s">
+        <v>735</v>
+      </c>
+      <c r="D251" t="s">
+        <v>7</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>736</v>
       </c>
     </row>
   </sheetData>
